--- a/thoikhoabieu.xlsx
+++ b/thoikhoabieu.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\qlgd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7547678C-764F-4A1D-A82D-8280013888C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE61034B-123A-4E93-9CA6-B95EF72478FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="162">
   <si>
     <t>Ma_hoc_phan</t>
   </si>
@@ -99,9 +98,6 @@
     <t>Nguễn Minh Đức</t>
   </si>
   <si>
-    <t>K1-401</t>
-  </si>
-  <si>
     <t>K1-203</t>
   </si>
   <si>
@@ -159,24 +155,6 @@
     <t>Vũ Lệ Hoa</t>
   </si>
   <si>
-    <t>K1-901</t>
-  </si>
-  <si>
-    <t>K1-902</t>
-  </si>
-  <si>
-    <t>K1-903</t>
-  </si>
-  <si>
-    <t>K1-904</t>
-  </si>
-  <si>
-    <t>K1-905</t>
-  </si>
-  <si>
-    <t>K1-906</t>
-  </si>
-  <si>
     <t>COMP 411</t>
   </si>
   <si>
@@ -237,39 +215,15 @@
     <t>Nguyễn Thế Lộc</t>
   </si>
   <si>
-    <t>C-416</t>
-  </si>
-  <si>
-    <t>K1-506</t>
-  </si>
-  <si>
-    <t>C-411</t>
-  </si>
-  <si>
-    <t>K1-507</t>
-  </si>
-  <si>
     <t>06/09/21-31/12/21
 Thứ 4 (T2-5)</t>
   </si>
   <si>
     <t>06/09/21-31/12/21
-Thứ 2 (T2-5)</t>
-  </si>
-  <si>
-    <t>06/09/21-31/12/21
-Thứ 5 (T6-10)</t>
-  </si>
-  <si>
-    <t>06/09/21-31/12/21
 Thứ 4 (T6-8)</t>
   </si>
   <si>
     <t>06/09/21-31/12/21
-Thứ 5 (T2-5)</t>
-  </si>
-  <si>
-    <t>06/09/21-31/12/21
 Thứ 2 (T3-5)</t>
   </si>
   <si>
@@ -278,34 +232,14 @@
   </si>
   <si>
     <t>06/09/21-31/12/21
-Thứ 2 (T8-10)</t>
-  </si>
-  <si>
-    <t>06/09/21-31/12/21
 Thứ 3 (T6-8)</t>
   </si>
   <si>
     <t>06/09/21-31/12/21
-Thứ 6 (T8-10)</t>
-  </si>
-  <si>
-    <t>06/09/21-31/12/21
 Thứ 6 (T6-8)</t>
   </si>
   <si>
     <t>06/09/21-31/12/21
-Thứ 2 (T4-5)</t>
-  </si>
-  <si>
-    <t>06/09/21-31/12/21
-Thứ 5 (T8-9)</t>
-  </si>
-  <si>
-    <t>06/09/21-31/12/21
-Thứ 4 (T6-7)</t>
-  </si>
-  <si>
-    <t>06/09/21-31/12/21
 Thứ 2 (T6-7)</t>
   </si>
   <si>
@@ -321,12 +255,292 @@
   </si>
   <si>
     <t>C-102</t>
+  </si>
+  <si>
+    <t>C-103</t>
+  </si>
+  <si>
+    <t>C-104</t>
+  </si>
+  <si>
+    <t>C-105</t>
+  </si>
+  <si>
+    <t>06/09/21-31/12/21
+Thứ 4 (T1-2)</t>
+  </si>
+  <si>
+    <t>06/09/21-31/12/21
+Thứ 4 (T3-5)</t>
+  </si>
+  <si>
+    <t>06/09/21-31/12/21
+Thứ 4 (T6-10)</t>
+  </si>
+  <si>
+    <t>06/09/21-31/12/21
+Thứ 2 (T6-8)</t>
+  </si>
+  <si>
+    <t>06/09/21-31/12/21
+Thứ 5 (T8-10)</t>
+  </si>
+  <si>
+    <t>06/09/21-31/12/21
+Thứ 6 (T4-5)</t>
+  </si>
+  <si>
+    <t>06/09/21-31/12/21
+Thứ 6 (T8-9)</t>
+  </si>
+  <si>
+    <t>C-201</t>
+  </si>
+  <si>
+    <t>C-204</t>
+  </si>
+  <si>
+    <t>C-302</t>
+  </si>
+  <si>
+    <t>C-203</t>
+  </si>
+  <si>
+    <t>COMP 204</t>
+  </si>
+  <si>
+    <t>Nguyên lý hệ điều hành</t>
+  </si>
+  <si>
+    <t>06/09/21-31/12/21
+Thứ 6 (T1-2)</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Thăng</t>
+  </si>
+  <si>
+    <t>C-202</t>
+  </si>
+  <si>
+    <t>06/09/21-31/12/21
+Thứ 3 (T6-7)</t>
+  </si>
+  <si>
+    <t>C-205</t>
+  </si>
+  <si>
+    <t>COMP 354</t>
+  </si>
+  <si>
+    <t>COMP 234</t>
+  </si>
+  <si>
+    <t>COMP 546</t>
+  </si>
+  <si>
+    <t>COMP 452</t>
+  </si>
+  <si>
+    <t>COMP 453</t>
+  </si>
+  <si>
+    <t>COMP 236</t>
+  </si>
+  <si>
+    <t>COMP 252</t>
+  </si>
+  <si>
+    <t>COMP 537</t>
+  </si>
+  <si>
+    <t>COMP 523</t>
+  </si>
+  <si>
+    <t>COMP 324</t>
+  </si>
+  <si>
+    <t>COMP 123</t>
+  </si>
+  <si>
+    <t>COMP 456</t>
+  </si>
+  <si>
+    <t>COMP 678</t>
+  </si>
+  <si>
+    <t>Vi xử lý</t>
+  </si>
+  <si>
+    <t>Phương pháp nghiên cứu</t>
+  </si>
+  <si>
+    <t>Truyền số liệu</t>
+  </si>
+  <si>
+    <t>Bài tập lớn</t>
+  </si>
+  <si>
+    <t>Cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>Lập trình hướng đối tượng</t>
+  </si>
+  <si>
+    <t>Lập trình C/C++</t>
+  </si>
+  <si>
+    <t>Nguyên lý các ngôn ngữ</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ hình thức</t>
+  </si>
+  <si>
+    <t>Tiếng anh 1</t>
+  </si>
+  <si>
+    <t>Tiếng anh 2</t>
+  </si>
+  <si>
+    <t>Tiếng anh chuyên ngành 1</t>
+  </si>
+  <si>
+    <t>Tiếng anh chuyên ngành 2</t>
+  </si>
+  <si>
+    <t>Cấu trúc dữ liệu và giải thuật</t>
+  </si>
+  <si>
+    <t>Lập trình mạng 1</t>
+  </si>
+  <si>
+    <t>Lập trình mạng 2</t>
+  </si>
+  <si>
+    <t>COMP 679</t>
+  </si>
+  <si>
+    <t>Lập trình .Net</t>
+  </si>
+  <si>
+    <t>Nguyễn Tùng Lâm</t>
+  </si>
+  <si>
+    <t>Đỗ Đức Long</t>
+  </si>
+  <si>
+    <t>Đinh Hải Tiến</t>
+  </si>
+  <si>
+    <t>Nguyễn Việt Long</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Huyền</t>
+  </si>
+  <si>
+    <t>Nhữ Hải Phong</t>
+  </si>
+  <si>
+    <t>Đỗ Duy Tiến</t>
+  </si>
+  <si>
+    <t>Phạm Đức Hào</t>
+  </si>
+  <si>
+    <t>Lê Nguyên Việt</t>
+  </si>
+  <si>
+    <t>Nguyễn Khắc Hiệp</t>
+  </si>
+  <si>
+    <t>Vũ Thành Long</t>
+  </si>
+  <si>
+    <t>Đinh Thanh Vinh</t>
+  </si>
+  <si>
+    <t>Nguyễn Quỳnh Hoa</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Long</t>
+  </si>
+  <si>
+    <t>Đỗ Lân Đức</t>
+  </si>
+  <si>
+    <t>Như Cô Trúc</t>
+  </si>
+  <si>
+    <t>C-301</t>
+  </si>
+  <si>
+    <t>C-303</t>
+  </si>
+  <si>
+    <t>C-304</t>
+  </si>
+  <si>
+    <t>C-305</t>
+  </si>
+  <si>
+    <t>06/09/21-31/12/21
+Thứ 3 (T1-2)</t>
+  </si>
+  <si>
+    <t>06/09/21-31/12/21
+Thứ 5 (T1-2)</t>
+  </si>
+  <si>
+    <t>K1-102</t>
+  </si>
+  <si>
+    <t>K1-103</t>
+  </si>
+  <si>
+    <t>K1-104</t>
+  </si>
+  <si>
+    <t>K1-105</t>
+  </si>
+  <si>
+    <t>K1-101</t>
+  </si>
+  <si>
+    <t>K1-201</t>
+  </si>
+  <si>
+    <t>K1-202</t>
+  </si>
+  <si>
+    <t>K1-204</t>
+  </si>
+  <si>
+    <t>K1-205</t>
+  </si>
+  <si>
+    <t>06/09/21-31/12/21
+Thứ 3 (T2-4)</t>
+  </si>
+  <si>
+    <t>06/09/21-31/12/21
+Thứ 3 (T4-5)</t>
+  </si>
+  <si>
+    <t>06/09/21-31/12/21
+Thứ 3 (T1-3)</t>
+  </si>
+  <si>
+    <t>06/09/21-31/12/21
+Thứ 2 (6-8)</t>
+  </si>
+  <si>
+    <t>06/09/21-31/12/21
+Thứ 4 (T8-10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -734,25 +948,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C8B7A1-E85C-4495-86BF-DC9AC17CC258}">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49:R56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="8" max="11" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -775,7 +990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -783,22 +998,22 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -809,19 +1024,19 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -835,16 +1050,16 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -858,16 +1073,16 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -881,21 +1096,21 @@
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -904,21 +1119,21 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -927,21 +1142,21 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -953,41 +1168,41 @@
         <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -996,21 +1211,21 @@
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1019,21 +1234,21 @@
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>43</v>
       </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1042,21 +1257,21 @@
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1065,21 +1280,21 @@
         <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1088,21 +1303,21 @@
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1111,21 +1326,21 @@
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1134,21 +1349,21 @@
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1157,21 +1372,21 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1183,26 +1398,457 @@
         <v>90</v>
       </c>
       <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="1"/>
+      <c r="F26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M52" s="1"/>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M54" s="1"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M55" s="1"/>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="M56" s="1"/>
+      <c r="P56" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/thoikhoabieu.xlsx
+++ b/thoikhoabieu.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\qlgd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\qlgd\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60124A17-B371-4EC1-ACC7-4E0EBCE329C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="161">
   <si>
     <t>Ma_hoc_phan</t>
   </si>
@@ -527,10 +528,6 @@
   <si>
     <t>06/09/21-31/12/21
 Thứ 3 (T1-3)</t>
-  </si>
-  <si>
-    <t>06/09/21-31/12/21
-Thứ 2 (6-8)</t>
   </si>
   <si>
     <t>06/09/21-31/12/21
@@ -540,7 +537,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -948,26 +945,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49:R56"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="11" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="11" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -990,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1013,7 +1010,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1033,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1059,7 +1056,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1082,7 +1079,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1105,7 +1102,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1128,7 +1125,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1151,7 +1148,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1174,7 +1171,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1197,7 +1194,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1220,7 +1217,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1243,7 +1240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1266,7 +1263,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1289,7 +1286,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1312,7 +1309,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1335,7 +1332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1358,7 +1355,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1381,7 +1378,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1404,7 +1401,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -1427,7 +1424,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -1450,7 +1447,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -1473,7 +1470,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -1496,7 +1493,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -1519,7 +1516,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -1542,7 +1539,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -1565,7 +1562,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -1588,7 +1585,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -1611,7 +1608,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -1634,7 +1631,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -1657,7 +1654,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -1671,7 +1668,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s">
         <v>135</v>
@@ -1680,7 +1677,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -1703,7 +1700,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -1726,7 +1723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -1740,7 +1737,7 @@
         <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F34" t="s">
         <v>138</v>
@@ -1749,7 +1746,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -1772,7 +1769,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -1795,7 +1792,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>124</v>
       </c>
@@ -1818,35 +1815,35 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M56" s="1"/>
       <c r="P56" s="1"/>
     </row>
